--- a/Coev.xlsx
+++ b/Coev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GO\IdeaProjects\Coev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583DC490-EB30-4E94-A427-367C24D64218}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9CC4C4-F03F-438F-8E00-7CA5C16EBC83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12490" windowHeight="10330" xr2:uid="{900E7EF6-DDC3-45D6-85F1-4507F56C0A46}"/>
   </bookViews>
@@ -51,9 +51,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,9 +93,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -410,19 +413,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A91DFE-7B67-4A6E-9D4C-8AB1FAE112E2}">
-  <dimension ref="A1:K273"/>
+  <dimension ref="A1:L273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B1" activeCellId="1" sqref="F1:F1048576 B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
@@ -432,17 +440,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>27120</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>AVERAGE(B2:B21)</f>
         <v>27794.400000000001</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>50904</v>
+      </c>
+      <c r="G2" s="1">
+        <f>AVERAGE(F2:F21)</f>
+        <v>27389.4</v>
+      </c>
       <c r="I2" t="s">
         <v>1</v>
       </c>
@@ -453,12 +471,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>27936</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>27804</v>
       </c>
       <c r="I3">
         <f>2*J3</f>
@@ -471,13 +495,23 @@
         <f>C2</f>
         <v>27794.400000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" s="1">
+        <f>G2</f>
+        <v>27389.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>29376</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>34572</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I15" si="0">2*J4</f>
@@ -490,13 +524,23 @@
         <f>C23</f>
         <v>31140</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" s="1">
+        <f>G23</f>
+        <v>26782.799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>27648</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>21708</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -509,13 +553,23 @@
         <f>C44</f>
         <v>23360.400000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" s="1">
+        <f>G44</f>
+        <v>24393.599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>32616</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>18144</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -528,13 +582,23 @@
         <f>C65</f>
         <v>25338</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" s="1">
+        <f>G65</f>
+        <v>26005.200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>21120</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>41172</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -547,13 +611,23 @@
         <f>C86</f>
         <v>24552</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" s="1">
+        <f>G86</f>
+        <v>24418.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>32376</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>26100</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -566,13 +640,23 @@
         <f>C107</f>
         <v>27030</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" s="1">
+        <f>G107</f>
+        <v>29478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>19512</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>16740</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -585,13 +669,23 @@
         <f>C128</f>
         <v>30120</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" s="1">
+        <f>G128</f>
+        <v>26937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>28152</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>28236</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
@@ -604,13 +698,23 @@
         <f>C149</f>
         <v>29880</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" s="1">
+        <f>G149</f>
+        <v>29414.400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>29784</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>24120</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
@@ -623,13 +727,23 @@
         <f>C170</f>
         <v>33120</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11" s="1">
+        <f>G170</f>
+        <v>29935.200000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>28488</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>16704</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
@@ -642,13 +756,23 @@
         <f>C191</f>
         <v>33450</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" s="1">
+        <f>G191</f>
+        <v>33912.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>31440</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>23556</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
@@ -661,13 +785,23 @@
         <f>C212</f>
         <v>37080</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" s="1">
+        <f>G212</f>
+        <v>34683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>22224</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>24372</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
@@ -680,13 +814,23 @@
         <f>C233</f>
         <v>41370</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" s="1">
+        <f>G233</f>
+        <v>39438.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>22512</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>36348</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
@@ -699,2021 +843,3675 @@
         <f>C254</f>
         <v>42480</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" s="1">
+        <f>G254</f>
+        <v>39788.400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>37896</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>15384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>30024</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>25344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>17928</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>29616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>31992</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>31932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>24456</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>27264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>33288</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>27768</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>29316</v>
+      </c>
+      <c r="L21" s="3">
+        <f>AVERAGE(K21:K40)</f>
+        <v>23495.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>19776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>27552</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <f t="shared" ref="C23:C65" si="1">AVERAGE(B23:B42)</f>
         <v>31140</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>26520</v>
+      </c>
+      <c r="G23" s="1">
+        <f>AVERAGE(F23:F42)</f>
+        <v>26782.799999999999</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>19080</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>37584</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>31644</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>25332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>33120</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2">
+        <v>25848</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>17244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>26784</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>21720</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>23232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>29328</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2">
+        <v>28752</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>31464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>47040</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2">
+        <v>31200</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>22620</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>28944</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2">
+        <v>39024</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>27312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>21984</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2">
+        <v>23808</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>23088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>35856</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" s="2">
+        <v>17952</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>16116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>26064</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2">
+        <v>37440</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>27216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>26832</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2">
+        <v>23232</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>28632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>17568</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2">
+        <v>19752</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>20100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>46560</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2">
+        <v>28584</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>22032</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>23184</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2">
+        <v>22392</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>24672</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>26832</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2">
+        <v>30240</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>27216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>4</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>34272</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" s="2">
+        <v>23064</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>25452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>43488</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2">
+        <v>23664</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>17148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>4</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>21168</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2">
+        <v>36948</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>22860</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>41808</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2">
+        <v>20220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>26832</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2">
+        <v>23652</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>19512</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <f t="shared" si="1"/>
         <v>23360.400000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2">
+        <v>26868</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ref="G23:G65" si="2">AVERAGE(F44:F63)</f>
+        <v>24393.599999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>6</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>25344</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2">
+        <v>30168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>6</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>26208</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46" s="2">
+        <v>18492</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>6</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>19872</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47" s="2">
+        <v>30684</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>6</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>22104</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48" s="2">
+        <v>24984</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>6</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>23760</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49" s="2">
+        <v>31740</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>6</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>27000</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50" s="2">
+        <v>16296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>6</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>15984</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51" s="2">
+        <v>19608</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>6</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>21168</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52" s="2">
+        <v>23736</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>6</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>20952</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53" s="2">
+        <v>25836</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>6</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>19008</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54" s="2">
+        <v>26868</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>6</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>23472</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55" s="2">
+        <v>21840</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>6</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>15696</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56" s="2">
+        <v>22296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>6</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>18864</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57" s="2">
+        <v>22776</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>6</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>25992</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58" s="2">
+        <v>17760</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>6</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>30168</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59" s="2">
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>6</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>35424</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60" s="2">
+        <v>39168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>6</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>18648</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61" s="2">
+        <v>21588</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>6</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>27792</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62" s="2">
+        <v>25584</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>6</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>30240</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="F63" s="2">
+        <v>22680</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>10</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>26640</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <f t="shared" si="1"/>
         <v>25338</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65" s="2">
+        <v>21864</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="2"/>
+        <v>26005.200000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>10</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>23280</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66" s="2">
+        <v>27660</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>10</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>43200</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67" s="2">
+        <v>19596</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>10</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>25920</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68" s="2">
+        <v>35448</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>10</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>18480</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69" s="2">
+        <v>15024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>10</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>21720</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70" s="2">
+        <v>24492</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>10</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>24000</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71" s="2">
+        <v>28488</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>10</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>37320</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72" s="2">
+        <v>27480</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>10</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>15720</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73" s="2">
+        <v>27120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>10</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>24600</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74" s="2">
+        <v>12564</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>10</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>24360</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="F75" s="2">
+        <v>27300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>10</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>23040</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="F76" s="2">
+        <v>22764</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>10</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>16800</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77" s="2">
+        <v>28308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>10</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>25080</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78" s="2">
+        <v>33024</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>10</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>25200</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <v>10</v>
+      </c>
+      <c r="F79" s="2">
+        <v>35604</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>10</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>21360</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80" s="2">
+        <v>21948</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>10</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>27240</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81" s="2">
+        <v>23220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>10</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>32640</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82" s="2">
+        <v>21804</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>10</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>28440</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83" s="2">
+        <v>28536</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>10</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>21720</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84" s="2">
+        <v>37860</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>20</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
         <v>25680</v>
       </c>
-      <c r="C86">
-        <f t="shared" ref="C86:C128" si="2">AVERAGE(B86:B105)</f>
+      <c r="C86" s="1">
+        <f t="shared" ref="C86:C128" si="3">AVERAGE(B86:B105)</f>
         <v>24552</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <v>20</v>
+      </c>
+      <c r="F86" s="2">
+        <v>21624</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" ref="G86:G128" si="4">AVERAGE(F86:F105)</f>
+        <v>24418.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>20</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>22800</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <v>20</v>
+      </c>
+      <c r="F87" s="2">
+        <v>30648</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>20</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>33120</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <v>20</v>
+      </c>
+      <c r="F88" s="2">
+        <v>20868</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>20</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>26400</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <v>20</v>
+      </c>
+      <c r="F89" s="2">
+        <v>19380</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>20</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>20400</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <v>20</v>
+      </c>
+      <c r="F90" s="2">
+        <v>17856</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>20</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
         <v>24000</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E91">
+        <v>20</v>
+      </c>
+      <c r="F91" s="2">
+        <v>25920</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>20</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
         <v>25920</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <v>20</v>
+      </c>
+      <c r="F92" s="2">
+        <v>21816</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>20</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="2">
         <v>11040</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <v>20</v>
+      </c>
+      <c r="F93" s="2">
+        <v>19788</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>20</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>22320</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E94">
+        <v>20</v>
+      </c>
+      <c r="F94" s="2">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>20</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
         <v>18240</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E95">
+        <v>20</v>
+      </c>
+      <c r="F95" s="2">
+        <v>21156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>20</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="2">
         <v>32640</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E96">
+        <v>20</v>
+      </c>
+      <c r="F96" s="2">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>20</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
         <v>19920</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E97">
+        <v>20</v>
+      </c>
+      <c r="F97" s="2">
+        <v>26952</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>20</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="2">
         <v>31440</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E98">
+        <v>20</v>
+      </c>
+      <c r="F98" s="2">
+        <v>25128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>20</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="2">
         <v>21360</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <v>20</v>
+      </c>
+      <c r="F99" s="2">
+        <v>23616</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>20</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>22080</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E100">
+        <v>20</v>
+      </c>
+      <c r="F100" s="2">
+        <v>27312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>20</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="2">
         <v>30720</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E101">
+        <v>20</v>
+      </c>
+      <c r="F101" s="2">
+        <v>33072</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>20</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="2">
         <v>24720</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E102">
+        <v>20</v>
+      </c>
+      <c r="F102" s="2">
+        <v>13908</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>20</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="2">
         <v>42480</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E103">
+        <v>20</v>
+      </c>
+      <c r="F103" s="2">
+        <v>37092</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>20</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="2">
         <v>17760</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E104">
+        <v>20</v>
+      </c>
+      <c r="F104" s="2">
+        <v>22044</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>20</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="2">
         <v>18000</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E105">
+        <v>20</v>
+      </c>
+      <c r="F105" s="2">
+        <v>25332</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>50</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="2">
         <v>40200</v>
       </c>
-      <c r="C107">
-        <f t="shared" si="2"/>
+      <c r="C107" s="1">
+        <f t="shared" si="3"/>
         <v>27030</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E107">
+        <v>50</v>
+      </c>
+      <c r="F107" s="2">
+        <v>19212</v>
+      </c>
+      <c r="G107" s="1">
+        <f t="shared" si="4"/>
+        <v>29478</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>50</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="2">
         <v>21000</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E108">
+        <v>50</v>
+      </c>
+      <c r="F108" s="2">
+        <v>23664</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>50</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="2">
         <v>31200</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E109">
+        <v>50</v>
+      </c>
+      <c r="F109" s="2">
+        <v>25992</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>50</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="2">
         <v>21000</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E110">
+        <v>50</v>
+      </c>
+      <c r="F110" s="2">
+        <v>53352</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>50</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="2">
         <v>18600</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E111">
+        <v>50</v>
+      </c>
+      <c r="F111" s="2">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>50</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="2">
         <v>25800</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E112">
+        <v>50</v>
+      </c>
+      <c r="F112" s="2">
+        <v>22884</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>50</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="2">
         <v>27600</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E113">
+        <v>50</v>
+      </c>
+      <c r="F113" s="2">
+        <v>20616</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>50</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="2">
         <v>28200</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E114">
+        <v>50</v>
+      </c>
+      <c r="F114" s="2">
+        <v>36180</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>50</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="2">
         <v>46200</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E115">
+        <v>50</v>
+      </c>
+      <c r="F115" s="2">
+        <v>36408</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>50</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="2">
         <v>22200</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E116">
+        <v>50</v>
+      </c>
+      <c r="F116" s="2">
+        <v>30816</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>50</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="2">
         <v>32400</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E117">
+        <v>50</v>
+      </c>
+      <c r="F117" s="2">
+        <v>33660</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>50</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="2">
         <v>46200</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E118">
+        <v>50</v>
+      </c>
+      <c r="F118" s="2">
+        <v>23832</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>50</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="2">
         <v>22800</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E119">
+        <v>50</v>
+      </c>
+      <c r="F119" s="2">
+        <v>32808</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>50</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="2">
         <v>27600</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E120">
+        <v>50</v>
+      </c>
+      <c r="F120" s="2">
+        <v>25524</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>50</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="2">
         <v>21600</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E121">
+        <v>50</v>
+      </c>
+      <c r="F121" s="2">
+        <v>28860</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>50</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="2">
         <v>24600</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E122">
+        <v>50</v>
+      </c>
+      <c r="F122" s="2">
+        <v>19728</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>50</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="2">
         <v>20400</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E123">
+        <v>50</v>
+      </c>
+      <c r="F123" s="2">
+        <v>40488</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>50</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="2">
         <v>26400</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E124">
+        <v>50</v>
+      </c>
+      <c r="F124" s="2">
+        <v>19704</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>50</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="2">
         <v>13200</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E125">
+        <v>50</v>
+      </c>
+      <c r="F125" s="2">
+        <v>28344</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>50</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="2">
         <v>23400</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E126">
+        <v>50</v>
+      </c>
+      <c r="F126" s="2">
+        <v>21984</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>100</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="2">
         <v>36000</v>
       </c>
-      <c r="C128">
-        <f t="shared" si="2"/>
+      <c r="C128" s="1">
+        <f t="shared" si="3"/>
         <v>30120</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E128">
+        <v>100</v>
+      </c>
+      <c r="F128" s="2">
+        <v>44472</v>
+      </c>
+      <c r="G128" s="1">
+        <f t="shared" si="4"/>
+        <v>26937</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>100</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="2">
         <v>31200</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E129">
+        <v>100</v>
+      </c>
+      <c r="F129" s="2">
+        <v>25464</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>100</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="2">
         <v>26400</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E130">
+        <v>100</v>
+      </c>
+      <c r="F130" s="2">
+        <v>24816</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>100</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="2">
         <v>46800</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E131">
+        <v>100</v>
+      </c>
+      <c r="F131" s="2">
+        <v>24936</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>100</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="2">
         <v>33600</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E132">
+        <v>100</v>
+      </c>
+      <c r="F132" s="2">
+        <v>23844</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>100</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="2">
         <v>25200</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E133">
+        <v>100</v>
+      </c>
+      <c r="F133" s="2">
+        <v>17316</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>100</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E134">
+        <v>100</v>
+      </c>
+      <c r="F134" s="2">
+        <v>29568</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>100</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="2">
         <v>24000</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E135">
+        <v>100</v>
+      </c>
+      <c r="F135" s="2">
+        <v>21264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>100</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="2">
         <v>24000</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E136">
+        <v>100</v>
+      </c>
+      <c r="F136" s="2">
+        <v>25464</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>100</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="2">
         <v>37200</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E137">
+        <v>100</v>
+      </c>
+      <c r="F137" s="2">
+        <v>30912</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>100</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="2">
         <v>20400</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E138">
+        <v>100</v>
+      </c>
+      <c r="F138" s="2">
+        <v>25236</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>100</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="2">
         <v>21600</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E139">
+        <v>100</v>
+      </c>
+      <c r="F139" s="2">
+        <v>21264</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>100</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="2">
         <v>38400</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E140">
+        <v>100</v>
+      </c>
+      <c r="F140" s="2">
+        <v>24396</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>100</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="2">
         <v>26400</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E141">
+        <v>100</v>
+      </c>
+      <c r="F141" s="2">
+        <v>24516</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>100</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="2">
         <v>24000</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E142">
+        <v>100</v>
+      </c>
+      <c r="F142" s="2">
+        <v>27276</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>100</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="2">
         <v>43200</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E143">
+        <v>100</v>
+      </c>
+      <c r="F143" s="2">
+        <v>36684</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>100</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="2">
         <v>24000</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E144">
+        <v>100</v>
+      </c>
+      <c r="F144" s="2">
+        <v>30084</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>100</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="2">
         <v>34800</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E145">
+        <v>100</v>
+      </c>
+      <c r="F145" s="2">
+        <v>26664</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>100</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="2">
         <v>31200</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E146">
+        <v>100</v>
+      </c>
+      <c r="F146" s="2">
+        <v>23268</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>100</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="2">
         <v>24000</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E147">
+        <v>100</v>
+      </c>
+      <c r="F147" s="2">
+        <v>31296</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>150</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="2">
         <v>41400</v>
       </c>
-      <c r="C149">
-        <f t="shared" ref="C149:C191" si="3">AVERAGE(B149:B168)</f>
+      <c r="C149" s="1">
+        <f t="shared" ref="C149:C191" si="5">AVERAGE(B149:B168)</f>
         <v>29880</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E149">
+        <v>150</v>
+      </c>
+      <c r="F149" s="2">
+        <v>27804</v>
+      </c>
+      <c r="G149" s="1">
+        <f t="shared" ref="G149:G191" si="6">AVERAGE(F149:F168)</f>
+        <v>29414.400000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>150</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="2">
         <v>30600</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E150">
+        <v>150</v>
+      </c>
+      <c r="F150" s="2">
+        <v>29640</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="2">
         <v>21600</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E151">
+        <v>150</v>
+      </c>
+      <c r="F151" s="2">
+        <v>32016</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>150</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="2">
         <v>27000</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E152">
+        <v>150</v>
+      </c>
+      <c r="F152" s="2">
+        <v>21864</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>150</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="2">
         <v>37800</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E153">
+        <v>150</v>
+      </c>
+      <c r="F153" s="2">
+        <v>22248</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>150</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="2">
         <v>19800</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E154">
+        <v>150</v>
+      </c>
+      <c r="F154" s="2">
+        <v>29916</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>150</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="2">
         <v>27000</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E155">
+        <v>150</v>
+      </c>
+      <c r="F155" s="2">
+        <v>25908</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>150</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="2">
         <v>37800</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E156">
+        <v>150</v>
+      </c>
+      <c r="F156" s="2">
+        <v>49428</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>150</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="2">
         <v>23400</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E157">
+        <v>150</v>
+      </c>
+      <c r="F157" s="2">
+        <v>20136</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>150</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="2">
         <v>32400</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E158">
+        <v>150</v>
+      </c>
+      <c r="F158" s="2">
+        <v>27096</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>150</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="2">
         <v>27000</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E159">
+        <v>150</v>
+      </c>
+      <c r="F159" s="2">
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>150</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="2">
         <v>25200</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E160">
+        <v>150</v>
+      </c>
+      <c r="F160" s="2">
+        <v>27012</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>150</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="2">
         <v>30600</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E161">
+        <v>150</v>
+      </c>
+      <c r="F161" s="2">
+        <v>37260</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>150</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="2">
         <v>32400</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E162">
+        <v>150</v>
+      </c>
+      <c r="F162" s="2">
+        <v>32184</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>150</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="2">
         <v>28800</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E163">
+        <v>150</v>
+      </c>
+      <c r="F163" s="2">
+        <v>19320</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>150</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="2">
         <v>32400</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E164">
+        <v>150</v>
+      </c>
+      <c r="F164" s="2">
+        <v>29604</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>150</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="2">
         <v>27000</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E165">
+        <v>150</v>
+      </c>
+      <c r="F165" s="2">
+        <v>35100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>150</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="2">
         <v>34200</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E166">
+        <v>150</v>
+      </c>
+      <c r="F166" s="2">
+        <v>33336</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>150</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="2">
         <v>27000</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E167">
+        <v>150</v>
+      </c>
+      <c r="F167" s="2">
+        <v>33096</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>150</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="2">
         <v>34200</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E168">
+        <v>150</v>
+      </c>
+      <c r="F168" s="2">
+        <v>34620</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>200</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="2">
         <v>28800</v>
       </c>
-      <c r="C170">
-        <f t="shared" si="3"/>
+      <c r="C170" s="1">
+        <f t="shared" si="5"/>
         <v>33120</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E170">
+        <v>200</v>
+      </c>
+      <c r="F170" s="2">
+        <v>25956</v>
+      </c>
+      <c r="G170" s="1">
+        <f t="shared" si="6"/>
+        <v>29935.200000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>200</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="2">
         <v>28800</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E171">
+        <v>200</v>
+      </c>
+      <c r="F171" s="2">
+        <v>26256</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>200</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="2">
         <v>24000</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E172">
+        <v>200</v>
+      </c>
+      <c r="F172" s="2">
+        <v>34620</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>200</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="2">
         <v>40800</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E173">
+        <v>200</v>
+      </c>
+      <c r="F173" s="2">
+        <v>31428</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>200</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="2">
         <v>36000</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E174">
+        <v>200</v>
+      </c>
+      <c r="F174" s="2">
+        <v>23388</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>200</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="2">
         <v>50400</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E175">
+        <v>200</v>
+      </c>
+      <c r="F175" s="2">
+        <v>31740</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>200</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="2">
         <v>31200</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E176">
+        <v>200</v>
+      </c>
+      <c r="F176" s="2">
+        <v>33048</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>200</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="2">
         <v>26400</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E177">
+        <v>200</v>
+      </c>
+      <c r="F177" s="2">
+        <v>30552</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>200</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="2">
         <v>28800</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E178">
+        <v>200</v>
+      </c>
+      <c r="F178" s="2">
+        <v>28740</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>200</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="2">
         <v>38400</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E179">
+        <v>200</v>
+      </c>
+      <c r="F179" s="2">
+        <v>28068</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>200</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="2">
         <v>28800</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E180">
+        <v>200</v>
+      </c>
+      <c r="F180" s="2">
+        <v>25668</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>200</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="2">
         <v>28800</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E181">
+        <v>200</v>
+      </c>
+      <c r="F181" s="2">
+        <v>34452</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>200</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="2">
         <v>36000</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E182">
+        <v>200</v>
+      </c>
+      <c r="F182" s="2">
+        <v>34008</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>200</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="2">
         <v>40800</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E183">
+        <v>200</v>
+      </c>
+      <c r="F183" s="2">
+        <v>22524</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>200</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="2">
         <v>28800</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E184">
+        <v>200</v>
+      </c>
+      <c r="F184" s="2">
+        <v>30276</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>200</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="2">
         <v>40800</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E185">
+        <v>200</v>
+      </c>
+      <c r="F185" s="2">
+        <v>23832</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>200</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="2">
         <v>31200</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E186">
+        <v>200</v>
+      </c>
+      <c r="F186" s="2">
+        <v>24012</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>200</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="2">
         <v>28800</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E187">
+        <v>200</v>
+      </c>
+      <c r="F187" s="2">
+        <v>43068</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>200</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="2">
         <v>28800</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E188">
+        <v>200</v>
+      </c>
+      <c r="F188" s="2">
+        <v>41100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>200</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="2">
         <v>36000</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E189">
+        <v>200</v>
+      </c>
+      <c r="F189" s="2">
+        <v>25968</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>250</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="2">
         <v>57000</v>
       </c>
-      <c r="C191">
-        <f t="shared" si="3"/>
+      <c r="C191" s="1">
+        <f t="shared" si="5"/>
         <v>33450</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E191">
+        <v>250</v>
+      </c>
+      <c r="F191" s="2">
+        <v>35820</v>
+      </c>
+      <c r="G191" s="1">
+        <f t="shared" si="6"/>
+        <v>33912.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>250</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E192">
+        <v>250</v>
+      </c>
+      <c r="F192" s="2">
+        <v>29592</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>250</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="2">
         <v>36000</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E193">
+        <v>250</v>
+      </c>
+      <c r="F193" s="2">
+        <v>34356</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>250</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="2">
         <v>39000</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E194">
+        <v>250</v>
+      </c>
+      <c r="F194" s="2">
+        <v>26520</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>250</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="2">
         <v>33000</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E195">
+        <v>250</v>
+      </c>
+      <c r="F195" s="2">
+        <v>27816</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>250</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="2">
         <v>24000</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E196">
+        <v>250</v>
+      </c>
+      <c r="F196" s="2">
+        <v>57300</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>250</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="2">
         <v>33000</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E197">
+        <v>250</v>
+      </c>
+      <c r="F197" s="2">
+        <v>32940</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>250</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E198">
+        <v>250</v>
+      </c>
+      <c r="F198" s="2">
+        <v>29136</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>250</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E199">
+        <v>250</v>
+      </c>
+      <c r="F199" s="2">
+        <v>31620</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>250</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="2">
         <v>33000</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E200">
+        <v>250</v>
+      </c>
+      <c r="F200" s="2">
+        <v>42588</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>250</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="2">
         <v>33000</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E201">
+        <v>250</v>
+      </c>
+      <c r="F201" s="2">
+        <v>34344</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>250</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="2">
         <v>51000</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E202">
+        <v>250</v>
+      </c>
+      <c r="F202" s="2">
+        <v>33528</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>250</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E203">
+        <v>250</v>
+      </c>
+      <c r="F203" s="2">
+        <v>34848</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>250</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="2">
         <v>27000</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E204">
+        <v>250</v>
+      </c>
+      <c r="F204" s="2">
+        <v>37344</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>250</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E205">
+        <v>250</v>
+      </c>
+      <c r="F205" s="2">
+        <v>26328</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>250</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E206">
+        <v>250</v>
+      </c>
+      <c r="F206" s="2">
+        <v>30360</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>250</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="2">
         <v>27000</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E207">
+        <v>250</v>
+      </c>
+      <c r="F207" s="2">
+        <v>48852</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>250</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="2">
         <v>36000</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E208">
+        <v>250</v>
+      </c>
+      <c r="F208" s="2">
+        <v>29820</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>250</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E209">
+        <v>250</v>
+      </c>
+      <c r="F209" s="2">
+        <v>30012</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>250</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E210">
+        <v>250</v>
+      </c>
+      <c r="F210" s="2">
+        <v>25128</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>300</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="2">
         <v>32400</v>
       </c>
-      <c r="C212">
-        <f t="shared" ref="C212:C254" si="4">AVERAGE(B212:B231)</f>
+      <c r="C212" s="1">
+        <f t="shared" ref="C212:C254" si="7">AVERAGE(B212:B231)</f>
         <v>37080</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E212">
+        <v>300</v>
+      </c>
+      <c r="F212" s="2">
+        <v>28152</v>
+      </c>
+      <c r="G212" s="1">
+        <f t="shared" ref="G212:G254" si="8">AVERAGE(F212:F231)</f>
+        <v>34683</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>300</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="2">
         <v>32400</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E213">
+        <v>300</v>
+      </c>
+      <c r="F213" s="2">
+        <v>32736</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>300</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="2">
         <v>32400</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E214">
+        <v>300</v>
+      </c>
+      <c r="F214" s="2">
+        <v>31944</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>300</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="2">
         <v>32400</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E215">
+        <v>300</v>
+      </c>
+      <c r="F215" s="2">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>300</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="2">
         <v>32400</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E216">
+        <v>300</v>
+      </c>
+      <c r="F216" s="2">
+        <v>30504</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>300</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="2">
         <v>50400</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E217">
+        <v>300</v>
+      </c>
+      <c r="F217" s="2">
+        <v>36096</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>300</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="2">
         <v>43200</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E218">
+        <v>300</v>
+      </c>
+      <c r="F218" s="2">
+        <v>38640</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>300</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="2">
         <v>36000</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E219">
+        <v>300</v>
+      </c>
+      <c r="F219" s="2">
+        <v>32712</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>300</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="2">
         <v>39600</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E220">
+        <v>300</v>
+      </c>
+      <c r="F220" s="2">
+        <v>35232</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>300</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="2">
         <v>36000</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E221">
+        <v>300</v>
+      </c>
+      <c r="F221" s="2">
+        <v>33912</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>300</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="2">
         <v>36000</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E222">
+        <v>300</v>
+      </c>
+      <c r="F222" s="2">
+        <v>34344</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>300</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="2">
         <v>32400</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E223">
+        <v>300</v>
+      </c>
+      <c r="F223" s="2">
+        <v>30408</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>300</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="2">
         <v>36000</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E224">
+        <v>300</v>
+      </c>
+      <c r="F224" s="2">
+        <v>38892</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>300</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="2">
         <v>36000</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E225">
+        <v>300</v>
+      </c>
+      <c r="F225" s="2">
+        <v>32424</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>300</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="2">
         <v>39600</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E226">
+        <v>300</v>
+      </c>
+      <c r="F226" s="2">
+        <v>37704</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>300</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="2">
         <v>32400</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E227">
+        <v>300</v>
+      </c>
+      <c r="F227" s="2">
+        <v>37620</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>300</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="2">
         <v>32400</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E228">
+        <v>300</v>
+      </c>
+      <c r="F228" s="2">
+        <v>32796</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>300</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="2">
         <v>39600</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E229">
+        <v>300</v>
+      </c>
+      <c r="F229" s="2">
+        <v>33936</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>300</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="2">
         <v>46800</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E230">
+        <v>300</v>
+      </c>
+      <c r="F230" s="2">
+        <v>35676</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>300</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="2">
         <v>43200</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E231">
+        <v>300</v>
+      </c>
+      <c r="F231" s="2">
+        <v>27432</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>350</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="2">
         <v>33600</v>
       </c>
-      <c r="C233">
-        <f t="shared" si="4"/>
+      <c r="C233" s="1">
+        <f t="shared" si="7"/>
         <v>41370</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E233">
+        <v>350</v>
+      </c>
+      <c r="F233" s="2">
+        <v>30768</v>
+      </c>
+      <c r="G233" s="1">
+        <f t="shared" si="8"/>
+        <v>39438.6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>350</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="2">
         <v>42000</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E234">
+        <v>350</v>
+      </c>
+      <c r="F234" s="2">
+        <v>37968</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>350</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="2">
         <v>42000</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E235">
+        <v>350</v>
+      </c>
+      <c r="F235" s="2">
+        <v>37392</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>350</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="2">
         <v>37800</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E236">
+        <v>350</v>
+      </c>
+      <c r="F236" s="2">
+        <v>33264</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>350</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="2">
         <v>54600</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E237">
+        <v>350</v>
+      </c>
+      <c r="F237" s="2">
+        <v>41496</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>350</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="2">
         <v>33600</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E238">
+        <v>350</v>
+      </c>
+      <c r="F238" s="2">
+        <v>43236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>350</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="2">
         <v>46200</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E239">
+        <v>350</v>
+      </c>
+      <c r="F239" s="2">
+        <v>38256</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>350</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="2">
         <v>33600</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E240">
+        <v>350</v>
+      </c>
+      <c r="F240" s="2">
+        <v>34944</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>350</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="2">
         <v>42000</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E241">
+        <v>350</v>
+      </c>
+      <c r="F241" s="2">
+        <v>48180</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>350</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="2">
         <v>50400</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E242">
+        <v>350</v>
+      </c>
+      <c r="F242" s="2">
+        <v>35112</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>350</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="2">
         <v>37800</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E243">
+        <v>350</v>
+      </c>
+      <c r="F243" s="2">
+        <v>35976</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>350</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="2">
         <v>37800</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E244">
+        <v>350</v>
+      </c>
+      <c r="F244" s="2">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>350</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="2">
         <v>37800</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E245">
+        <v>350</v>
+      </c>
+      <c r="F245" s="2">
+        <v>38124</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>350</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="2">
         <v>33600</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E246">
+        <v>350</v>
+      </c>
+      <c r="F246" s="2">
+        <v>41688</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>350</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="2">
         <v>37800</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E247">
+        <v>350</v>
+      </c>
+      <c r="F247" s="2">
+        <v>36756</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>350</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="2">
         <v>42000</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E248">
+        <v>350</v>
+      </c>
+      <c r="F248" s="2">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>350</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="2">
         <v>42000</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E249">
+        <v>350</v>
+      </c>
+      <c r="F249" s="2">
+        <v>36528</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>350</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="2">
         <v>46200</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E250">
+        <v>350</v>
+      </c>
+      <c r="F250" s="2">
+        <v>46308</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>350</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="2">
         <v>46200</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E251">
+        <v>350</v>
+      </c>
+      <c r="F251" s="2">
+        <v>49764</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>350</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="2">
         <v>50400</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E252">
+        <v>350</v>
+      </c>
+      <c r="F252" s="2">
+        <v>35616</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>400</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="2">
         <v>38400</v>
       </c>
-      <c r="C254">
-        <f t="shared" si="4"/>
+      <c r="C254" s="1">
+        <f t="shared" si="7"/>
         <v>42480</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E254">
+        <v>400</v>
+      </c>
+      <c r="F254" s="2">
+        <v>39084</v>
+      </c>
+      <c r="G254" s="1">
+        <f t="shared" si="8"/>
+        <v>39788.400000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>400</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="2">
         <v>43200</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E255">
+        <v>400</v>
+      </c>
+      <c r="F255" s="2">
+        <v>38424</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>400</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="2">
         <v>43200</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E256">
+        <v>400</v>
+      </c>
+      <c r="F256" s="2">
+        <v>42672</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>400</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="2">
         <v>48000</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E257">
+        <v>400</v>
+      </c>
+      <c r="F257" s="2">
+        <v>34872</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>400</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="2">
         <v>43200</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E258">
+        <v>400</v>
+      </c>
+      <c r="F258" s="2">
+        <v>35952</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>400</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="2">
         <v>43200</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E259">
+        <v>400</v>
+      </c>
+      <c r="F259" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>400</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="2">
         <v>43200</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E260">
+        <v>400</v>
+      </c>
+      <c r="F260" s="2">
+        <v>38472</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>400</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="2">
         <v>48000</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E261">
+        <v>400</v>
+      </c>
+      <c r="F261" s="2">
+        <v>38412</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>400</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="2">
         <v>43200</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E262">
+        <v>400</v>
+      </c>
+      <c r="F262" s="2">
+        <v>41964</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>400</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="2">
         <v>38400</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E263">
+        <v>400</v>
+      </c>
+      <c r="F263" s="2">
+        <v>59328</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>400</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="2">
         <v>48000</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E264">
+        <v>400</v>
+      </c>
+      <c r="F264" s="2">
+        <v>33612</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>400</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="2">
         <v>43200</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E265">
+        <v>400</v>
+      </c>
+      <c r="F265" s="2">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>400</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="2">
         <v>38400</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E266">
+        <v>400</v>
+      </c>
+      <c r="F266" s="2">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>400</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="2">
         <v>38400</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E267">
+        <v>400</v>
+      </c>
+      <c r="F267" s="2">
+        <v>39240</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>400</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="2">
         <v>48000</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E268">
+        <v>400</v>
+      </c>
+      <c r="F268" s="2">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>400</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="2">
         <v>48000</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E269">
+        <v>400</v>
+      </c>
+      <c r="F269" s="2">
+        <v>37248</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>400</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="2">
         <v>43200</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E270">
+        <v>400</v>
+      </c>
+      <c r="F270" s="2">
+        <v>38064</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>400</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="2">
         <v>38400</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E271">
+        <v>400</v>
+      </c>
+      <c r="F271" s="2">
+        <v>38424</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>400</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="2">
         <v>38400</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E272">
+        <v>400</v>
+      </c>
+      <c r="F272" s="2">
+        <v>35424</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>400</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="2">
         <v>33600</v>
+      </c>
+      <c r="E273">
+        <v>400</v>
+      </c>
+      <c r="F273" s="2">
+        <v>37032</v>
       </c>
     </row>
   </sheetData>
